--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P29_trail15 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P29_trail15 Features.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,29 +503,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,115 +544,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -671,72 +659,66 @@
         <v>8.034224159571403e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.7958925840840527</v>
+        <v>4.674087677773536e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1.784183079329232</v>
+        <v>7.073175786944292e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>4.674087677773536e-07</v>
+        <v>0.09700502800255872</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7.073175786944292e-06</v>
+        <v>0.1680577213191214</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.09700502800255872</v>
+        <v>0.03762903109672371</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1680577213191214</v>
+        <v>1.858948562132534</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.03762903109672371</v>
+        <v>1.881613079320074</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.847170430571919</v>
+        <v>4.108105704553353</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.881613079320074</v>
+        <v>3.678702298313632e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.108105704553353</v>
+        <v>140406947.0955187</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.678702298313632e-15</v>
+        <v>8.433430576104148e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>140406947.0955187</v>
+        <v>72.52234468225548</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>8.433430576104148e-07</v>
+        <v>0.0001321201923384239</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>72.52234468225548</v>
+        <v>7.906530494881392</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001321201923384239</v>
+        <v>1.451969543572469</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.906530494881392</v>
+        <v>0.008259259240207642</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.451969543572469</v>
+        <v>3.000521557501466</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.008259259240207642</v>
+        <v>0.9564974072595127</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.000521557501466</v>
+        <v>1.526743545545493</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9564974072595127</v>
+        <v>37</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.526743545545493</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.3316377619397683</v>
       </c>
     </row>
@@ -751,72 +733,66 @@
         <v>8.273506169534602e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1.202390666704369</v>
+        <v>4.521347262510803e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.784481236344934</v>
+        <v>7.080828194422568e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>4.521347262510803e-07</v>
+        <v>0.09111470380642293</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>7.080828194422568e-06</v>
+        <v>0.1574751011791705</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.09111470380642293</v>
+        <v>0.03308468897637157</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1574751011791705</v>
+        <v>1.859570588125965</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.03308468897637157</v>
+        <v>1.924117612437133</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.840442516640389</v>
+        <v>4.297930768106388</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.924117612437133</v>
+        <v>3.360926633044598e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.297930768106388</v>
+        <v>149780965.2968869</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.360926633044598e-15</v>
+        <v>7.883259072182034e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>149780965.2968869</v>
+        <v>75.40016261781956</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>7.883259072182034e-07</v>
+        <v>0.0001342454274198869</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>75.40016261781956</v>
+        <v>8.251602255505246</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001342454274198869</v>
+        <v>1.447322631714383</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.251602255505246</v>
+        <v>0.009140628823743727</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.447322631714383</v>
+        <v>2.939458861682013</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.009140628823743727</v>
+        <v>0.9567923546075521</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.939458861682013</v>
+        <v>1.526796135573623</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9567923546075521</v>
+        <v>50</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.526796135573623</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.3742885992270809</v>
       </c>
     </row>
@@ -831,72 +807,66 @@
         <v>8.687988574571838e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.440804428450577</v>
+        <v>4.440560634375197e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1.802409505584036</v>
+        <v>7.088287452293567e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>4.440560634375197e-07</v>
+        <v>0.08521044043394799</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>7.088287452293567e-06</v>
+        <v>0.147656464806044</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.08521044043394799</v>
+        <v>0.02905428647250393</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.147656464806044</v>
+        <v>1.861568165519826</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.02905428647250393</v>
+        <v>2.124477546129174</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.844408627110145</v>
+        <v>4.282674760665553</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.124477546129174</v>
+        <v>3.384914281354877e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.282674760665553</v>
+        <v>148461737.9818159</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.384914281354877e-15</v>
+        <v>7.968205008922695e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>148461737.9818159</v>
+        <v>74.60651536188168</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>7.968205008922695e-07</v>
+        <v>0.0001320799676737657</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>74.60651536188168</v>
+        <v>8.372044601381878</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001320799676737657</v>
+        <v>1.448002825715807</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.372044601381878</v>
+        <v>0.009257634291275909</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.448002825715807</v>
+        <v>2.970729330460548</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.009257634291275909</v>
+        <v>0.9571739784267602</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.970729330460548</v>
+        <v>1.520059190687464</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9571739784267602</v>
+        <v>37</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.520059190687464</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.4366005723908807</v>
       </c>
     </row>
@@ -911,72 +881,66 @@
         <v>9.21228538312117e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1.557932958173116</v>
+        <v>4.395840116350118e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1.737150953149506</v>
+        <v>7.095651073645836e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>4.395840116350118e-07</v>
+        <v>0.07954695291870614</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>7.095651073645836e-06</v>
+        <v>0.1383198988613604</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.07954695291870614</v>
+        <v>0.02545450697015916</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1383198988613604</v>
+        <v>1.861053122056889</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02545450697015916</v>
+        <v>2.041000414687284</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.852901038433349</v>
+        <v>4.223630076151975</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.041000414687284</v>
+        <v>3.480215329320493e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.223630076151975</v>
+        <v>148266704.8530553</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.480215329320493e-15</v>
+        <v>7.973365779286783e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>148266704.8530553</v>
+        <v>76.50562846042855</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>7.973365779286783e-07</v>
+        <v>0.0001331694440815332</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>76.50562846042855</v>
+        <v>8.548995534283806</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001331694440815332</v>
+        <v>1.542652432460125</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.548995534283806</v>
+        <v>0.009732732053520252</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.542652432460125</v>
+        <v>3.039609499268095</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.009732732053520252</v>
+        <v>0.9577160833992671</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.039609499268095</v>
+        <v>1.516805265970643</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9577160833992671</v>
+        <v>37</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.516805265970643</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.5022674362393935</v>
       </c>
     </row>
@@ -991,72 +955,66 @@
         <v>9.80062486898499e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1.59060480185856</v>
+        <v>4.332661118737409e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1.570633915957711</v>
+        <v>7.102929259323556e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.332661118737409e-07</v>
+        <v>0.0736947457668492</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>7.102929259323556e-06</v>
+        <v>0.1290187916258837</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.0736947457668492</v>
+        <v>0.02207270819846217</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1290187916258837</v>
+        <v>1.858977258895858</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02207270819846217</v>
+        <v>1.881195028710353</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.856543954003147</v>
+        <v>4.684117960272907</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.881195028710353</v>
+        <v>2.829581559116616e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.684117960272907</v>
+        <v>185179750.1351942</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.829581559116616e-15</v>
+        <v>6.391783226910184e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>185179750.1351942</v>
+        <v>97.03070882194461</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>6.391783226910184e-07</v>
+        <v>0.0001149956773004598</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>97.03070882194461</v>
+        <v>6.915618250542865</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001149956773004598</v>
+        <v>1.51748472369457</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>6.915618250542865</v>
+        <v>0.005499757479073774</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.51748472369457</v>
+        <v>3.268448145317328</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.005499757479073774</v>
+        <v>0.9582200602555918</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.268448145317328</v>
+        <v>1.482994766312146</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9582200602555918</v>
+        <v>37</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.482994766312146</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.4761186615027463</v>
       </c>
     </row>
@@ -1071,72 +1029,66 @@
         <v>1.04228868297385e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1.565714702640201</v>
+        <v>4.223596556256196e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>1.322486471275883</v>
+        <v>7.110068499187619e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.223596556256196e-07</v>
+        <v>0.06755203800400103</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>7.110068499187619e-06</v>
+        <v>0.1197565575515657</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.06755203800400103</v>
+        <v>0.01890059057823027</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1197565575515657</v>
+        <v>1.865399284198046</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01890059057823027</v>
+        <v>2.034231782777081</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.866363125323273</v>
+        <v>4.669256503795516</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.034231782777081</v>
+        <v>1.524705289763401e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.669256503795516</v>
+        <v>361234162.840495</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.524705289763401e-15</v>
+        <v>3.293737802458817e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>361234162.840495</v>
+        <v>198.9589768404289</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.293737802458817e-07</v>
+        <v>0.0001149171290173004</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>198.9589768404289</v>
+        <v>7.348160093109589</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001149171290173004</v>
+        <v>1.439231715755912</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>7.348160093109589</v>
+        <v>0.006205002870143843</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.439231715755912</v>
+        <v>3.288900457270527</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.006205002870143843</v>
+        <v>0.958393183212098</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.288900457270527</v>
+        <v>1.453323570413348</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.958393183212098</v>
+        <v>37</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.453323570413348</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.4972545354626125</v>
       </c>
     </row>
@@ -1151,72 +1103,66 @@
         <v>1.106535438932939e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1.503721778576955</v>
+        <v>4.138443048887306e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>1.026168828569107</v>
+        <v>7.116965556717738e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>4.138443048887306e-07</v>
+        <v>0.06092054520777513</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>7.116965556717738e-06</v>
+        <v>0.1099761054240069</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.06092054520777513</v>
+        <v>0.01580146010966702</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1099761054240069</v>
+        <v>1.87891612656123</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01580146010966702</v>
+        <v>2.2423879691021</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.886113780119899</v>
+        <v>4.628729438531769</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.2423879691021</v>
+        <v>1.375377662787113e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.628729438531769</v>
+        <v>392320698.309545</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.375377662787113e-15</v>
+        <v>3.040695823905744e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>392320698.309545</v>
+        <v>211.6919823610338</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>3.040695823905744e-07</v>
+        <v>0.0001294895695119842</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>211.6919823610338</v>
+        <v>9.371003274382847</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001294895695119842</v>
+        <v>1.431611390467968</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.371003274382847</v>
+        <v>0.01137121749608883</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.431611390467968</v>
+        <v>3.1559338639044</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01137121749608883</v>
+        <v>0.9599811125764101</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.1559338639044</v>
+        <v>1.399734492659559</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9599811125764101</v>
+        <v>30</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.399734492659559</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.5919001561293311</v>
       </c>
     </row>
@@ -1231,72 +1177,66 @@
         <v>1.171611688998137e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>1.423618582280141</v>
+        <v>4.236191348273198e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.7166736662091435</v>
+        <v>7.123568046984497e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>4.236191348273198e-07</v>
+        <v>0.05550283199198799</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>7.123568046984497e-06</v>
+        <v>0.1020503559722886</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.05550283199198799</v>
+        <v>0.01349337421056727</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1020503559722886</v>
+        <v>1.878795304320931</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01349337421056727</v>
+        <v>2.390609462593726</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.887532960348773</v>
+        <v>4.690245043055739</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.390609462593726</v>
+        <v>1.339536316102899e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.690245043055739</v>
+        <v>407061958.2441097</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.339536316102899e-15</v>
+        <v>2.930198354060192e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>407061958.2441097</v>
+        <v>221.9604145572798</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>2.930198354060192e-07</v>
+        <v>0.0001428876141636064</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>221.9604145572798</v>
+        <v>10.0719254794857</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001428876141636064</v>
+        <v>1.335328157387726</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>10.0719254794857</v>
+        <v>0.01449504581645124</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.335328157387726</v>
+        <v>3.093549774080668</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01449504581645124</v>
+        <v>0.9593068140811368</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.093549774080668</v>
+        <v>1.398314179432149</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9593068140811368</v>
+        <v>43</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.398314179432149</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.6589004881049243</v>
       </c>
     </row>
@@ -1311,72 +1251,66 @@
         <v>1.236175345191899e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1.340835407235257</v>
+        <v>4.357080932329793e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.427300322748001</v>
+        <v>7.130064992643e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>4.357080932329793e-07</v>
+        <v>0.05290251466360443</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>7.130064992643e-06</v>
+        <v>0.09675058310821777</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.05290251466360443</v>
+        <v>0.01215887763125216</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.09675058310821777</v>
+        <v>1.885413633258205</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01215887763125216</v>
+        <v>2.25015020951087</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.895240464196336</v>
+        <v>4.588669723775743</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.25015020951087</v>
+        <v>1.399496958092188e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.588669723775743</v>
+        <v>391193002.5675992</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.399496958092188e-15</v>
+        <v>3.050591379779535e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>391193002.5675992</v>
+        <v>214.1677698692356</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>3.050591379779535e-07</v>
+        <v>0.0001297687474873145</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>214.1677698692356</v>
+        <v>8.240508195516609</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001297687474873145</v>
+        <v>1.397126001962733</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.240508195516609</v>
+        <v>0.008812073364229735</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.397126001962733</v>
+        <v>3.330618550584594</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.008812073364229735</v>
+        <v>0.9587500220063488</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.330618550584594</v>
+        <v>1.365620043756035</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9587500220063488</v>
+        <v>40</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.365620043756035</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.6785972431489049</v>
       </c>
     </row>
@@ -1391,72 +1325,66 @@
         <v>1.300019997456352e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>1.261862957037991</v>
+        <v>4.494783999424501e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.1745233465586407</v>
+        <v>7.136714288454184e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>4.494783999424501e-07</v>
+        <v>0.05213233656994894</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>7.136714288454184e-06</v>
+        <v>0.09197489435445667</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.05213233656994894</v>
+        <v>0.01117677205197023</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.09197489435445667</v>
+        <v>1.89319816128608</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01117677205197023</v>
+        <v>2.182054525154914</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.901323895829805</v>
+        <v>5.082622700518712</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.182054525154914</v>
+        <v>1.036445111771929e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>5.082622700518712</v>
+        <v>517402006.1722866</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.036445111771929e-15</v>
+        <v>2.308251230129429e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>517402006.1722866</v>
+        <v>277.4613686606887</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>2.308251230129429e-07</v>
+        <v>0.0001226721319634378</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>277.4613686606887</v>
+        <v>7.660425567822932</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001226721319634378</v>
+        <v>1.393561148859882</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.660425567822932</v>
+        <v>0.007198660753832686</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.393561148859882</v>
+        <v>3.401856394349767</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.007198660753832686</v>
+        <v>0.9587405611351514</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.401856394349767</v>
+        <v>1.373879425498011</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9587405611351514</v>
+        <v>53</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.373879425498011</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.6734059598599529</v>
       </c>
     </row>
@@ -1471,72 +1399,66 @@
         <v>1.362548578057982e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1.187263946754602</v>
+        <v>4.627804078275468e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.04468118238142083</v>
+        <v>7.143639306114093e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>4.627804078275468e-07</v>
+        <v>0.0519660488922016</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>7.143639306114093e-06</v>
+        <v>0.08724104018802747</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.0519660488922016</v>
+        <v>0.01031102088034669</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.08724104018802747</v>
+        <v>1.900993201764601</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01031102088034669</v>
+        <v>2.249398520031617</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.918359902932567</v>
+        <v>5.233687478337323</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.249398520031617</v>
+        <v>9.77476847610832e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>5.233687478337323</v>
+        <v>553624349.0096315</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>9.77476847610832e-16</v>
+        <v>2.160856672932378e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>553624349.0096315</v>
+        <v>299.5965754150471</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.160856672932378e-07</v>
+        <v>0.0001183497309400105</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>299.5965754150471</v>
+        <v>8.35384225348986</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001183497309400105</v>
+        <v>1.330412277423745</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.35384225348986</v>
+        <v>0.008259234848085892</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.330412277423745</v>
+        <v>3.426810647017451</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.008259234848085892</v>
+        <v>0.9587395203158883</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.426810647017451</v>
+        <v>1.280808716519265</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9587395203158883</v>
+        <v>69</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.280808716519265</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.7443428213307272</v>
       </c>
     </row>
@@ -1551,72 +1473,66 @@
         <v>1.423535064584493e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>1.117540354873411</v>
+        <v>4.783789604123114e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.2331624049825711</v>
+        <v>7.150907711759397e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>4.783789604123114e-07</v>
+        <v>0.05252807665541552</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>7.150907711759397e-06</v>
+        <v>0.08266605925596264</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.05252807665541552</v>
+        <v>0.009591863850950493</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.08266605925596264</v>
+        <v>1.903230023938462</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.009591863850950493</v>
+        <v>2.316736871461877</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.915598569635137</v>
+        <v>4.398089107546987</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.316736871461877</v>
+        <v>1.006490384793763e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.398089107546987</v>
+        <v>511836403.0535082</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.006490384793763e-15</v>
+        <v>2.327299350652159e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>511836403.0535082</v>
+        <v>263.6768318053329</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.327299350652159e-07</v>
+        <v>0.0001178255603135529</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>263.6768318053329</v>
+        <v>10.0230038760087</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001178255603135529</v>
+        <v>1.249241981420202</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>10.0230038760087</v>
+        <v>0.01183682727368851</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.249241981420202</v>
+        <v>3.378528206147403</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01183682727368851</v>
+        <v>0.9606716463596607</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.378528206147403</v>
+        <v>1.329754118753863</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9606716463596607</v>
+        <v>69</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.329754118753863</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.9082028782068636</v>
       </c>
     </row>
@@ -1631,72 +1547,66 @@
         <v>1.484059142533137e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1.055539507610213</v>
+        <v>4.991485879009671e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.3857300936459018</v>
+        <v>7.15863556944122e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>4.991485879009671e-07</v>
+        <v>0.05382481052526955</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>7.15863556944122e-06</v>
+        <v>0.0786383912909713</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.05382481052526955</v>
+        <v>0.009079744885319752</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.0786383912909713</v>
+        <v>1.89932669324934</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.009079744885319752</v>
+        <v>2.29949274566113</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.911822728594627</v>
+        <v>4.321829779189645</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.29949274566113</v>
+        <v>1.042323101508888e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.321829779189645</v>
+        <v>497747235.3940712</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.042323101508888e-15</v>
+        <v>2.395234406556559e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>497747235.3940712</v>
+        <v>258.2379565221256</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>2.395234406556559e-07</v>
+        <v>0.0001058711017345285</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>258.2379565221256</v>
+        <v>10.0341382925906</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001058711017345285</v>
+        <v>1.210384113575362</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>10.0341382925906</v>
+        <v>0.01065951873103012</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.210384113575362</v>
+        <v>3.631702823495465</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01065951873103012</v>
+        <v>0.9618918441640274</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.631702823495465</v>
+        <v>1.32319701438839</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9618918441640274</v>
+        <v>69</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.32319701438839</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>1.12861652119071</v>
       </c>
     </row>
@@ -1711,72 +1621,66 @@
         <v>1.545372944391294e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1.002893378756488</v>
+        <v>5.224638994914791e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.5015671042042467</v>
+        <v>7.166880508412159e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>5.224638994914791e-07</v>
+        <v>0.05494009346983731</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>7.166880508412159e-06</v>
+        <v>0.07550893831833139</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.05494009346983731</v>
+        <v>0.008718820304047911</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.07550893831833139</v>
+        <v>1.899883807702415</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.008718820304047911</v>
+        <v>2.670669391875129</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.916122687360037</v>
+        <v>4.409942524978241</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.670669391875129</v>
+        <v>1.001086996019432e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.409942524978241</v>
+        <v>515310631.8994522</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.001086996019432e-15</v>
+        <v>2.310126173655643e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>515310631.8994522</v>
+        <v>265.8336937580604</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.310126173655643e-07</v>
+        <v>0.0001293603848327564</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>265.8336937580604</v>
+        <v>9.486084163604838</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001293603848327564</v>
+        <v>1.862080870562264</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.486084163604838</v>
+        <v>0.01164059678078419</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.862080870562264</v>
+        <v>3.798376734208471</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01164059678078419</v>
+        <v>0.9629447814946634</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.798376734208471</v>
+        <v>1.333966724631969</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9629447814946634</v>
+        <v>64</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.333966724631969</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>1.167908029952684</v>
       </c>
     </row>
@@ -1791,72 +1695,66 @@
         <v>1.608285901487122e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.9574915340802769</v>
+        <v>5.442495552192427e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.5893030077138515</v>
+        <v>7.175562421788196e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>5.442495552192427e-07</v>
+        <v>0.05487946125771689</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>7.175562421788196e-06</v>
+        <v>0.07306799617757413</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.05487946125771689</v>
+        <v>0.008350181851239128</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.07306799617757413</v>
+        <v>1.893390385948457</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.008350181851239128</v>
+        <v>1.981932682178072</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.907002663742649</v>
+        <v>5.881010549275361</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.981932682178072</v>
+        <v>1.310860072043388e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>5.881010549275361</v>
+        <v>408795973.491321</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.310860072043388e-15</v>
+        <v>2.909466070254427e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>408795973.491321</v>
+        <v>219.0632640116592</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.909466070254427e-07</v>
+        <v>0.0001228793338834516</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>219.0632640116592</v>
+        <v>8.407236818349594</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001228793338834516</v>
+        <v>2.153582117477881</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.407236818349594</v>
+        <v>0.008685311725222595</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>2.153582117477881</v>
+        <v>3.825204929658677</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.008685311725222595</v>
+        <v>0.9634432124020713</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.825204929658677</v>
+        <v>1.365880104375385</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9634432124020713</v>
+        <v>63</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.365880104375385</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>1.232055667942562</v>
       </c>
     </row>
@@ -1871,72 +1769,66 @@
         <v>1.671483393749942e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.9116399730219213</v>
+        <v>5.546388066841876e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.6733398926582614</v>
+        <v>7.184413409338026e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>5.546388066841876e-07</v>
+        <v>0.05279027834038768</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>7.184413409338026e-06</v>
+        <v>0.0703676510260645</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.05279027834038768</v>
+        <v>0.007738443240026943</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.0703676510260645</v>
+        <v>1.89846961528577</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.007738443240026943</v>
+        <v>2.006693719309061</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.914034898206973</v>
+        <v>5.230392215398078</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.006693719309061</v>
+        <v>2.271901190554276e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>5.230392215398078</v>
+        <v>257817919.7408818</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.271901190554276e-15</v>
+        <v>4.643193674231615e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>257817919.7408818</v>
+        <v>151.0134532964435</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>4.643193674231615e-07</v>
+        <v>0.0001431379491272185</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>151.0134532964435</v>
+        <v>7.861676821384957</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001431379491272185</v>
+        <v>2.069290841278243</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>7.861676821384957</v>
+        <v>0.008846778708053948</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>2.069290841278243</v>
+        <v>3.53051118778031</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.008846778708053948</v>
+        <v>0.962690164774894</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.53051118778031</v>
+        <v>1.362739161044262</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.962690164774894</v>
+        <v>63</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.362739161044262</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.8223794789853081</v>
       </c>
     </row>
@@ -2313,7 +2205,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.542677359373961</v>
+        <v>1.490961258853351</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.956465726763575</v>
@@ -2402,7 +2294,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.477245008614702</v>
+        <v>1.436731870608844</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.041508361204312</v>
@@ -2491,7 +2383,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.47034048048894</v>
+        <v>1.43386248633618</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.951083865237396</v>
@@ -2580,7 +2472,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.470430506294163</v>
+        <v>1.441130030384943</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.981702859060288</v>
@@ -2669,7 +2561,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.47990926773452</v>
+        <v>1.449601982424002</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.009481189092282</v>
@@ -2758,7 +2650,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.486354281387256</v>
+        <v>1.456518653249929</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.019225074808452</v>
@@ -2847,7 +2739,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.417607988164231</v>
+        <v>1.397151256504844</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.91842075403825</v>
@@ -2936,7 +2828,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.424537867530488</v>
+        <v>1.408783500071315</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.930035641264463</v>
@@ -3025,7 +2917,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.427330925469199</v>
+        <v>1.414393708687181</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.937844763083248</v>
@@ -3114,7 +3006,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.424680064357629</v>
+        <v>1.407987495792994</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.914475813758143</v>
@@ -3203,7 +3095,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.431402085772536</v>
+        <v>1.415814015729957</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.940070359730381</v>
@@ -3292,7 +3184,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.431366596539791</v>
+        <v>1.419688556372846</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.9560893604429</v>
@@ -3381,7 +3273,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.436460575957773</v>
+        <v>1.423213503589625</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.946468678937773</v>
@@ -3470,7 +3362,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.439952689816774</v>
+        <v>1.426236877274994</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.959631820666015</v>
@@ -3559,7 +3451,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.445608683202519</v>
+        <v>1.43193534402152</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.976357994121775</v>
@@ -3648,7 +3540,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.459431682470809</v>
+        <v>1.44451815110165</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.961930298326655</v>
@@ -3737,7 +3629,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.509803361818333</v>
+        <v>1.493471542652485</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.891448827059433</v>
@@ -3826,7 +3718,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.517248992092589</v>
+        <v>1.496697644250397</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.962710945225283</v>
@@ -3915,7 +3807,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.518786132544155</v>
+        <v>1.502926005183407</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.979899700346455</v>
@@ -4004,7 +3896,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.519150478850703</v>
+        <v>1.50351723813251</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.979531764069461</v>
@@ -4093,7 +3985,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.532909284118178</v>
+        <v>1.507489549778385</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.913150455621692</v>
@@ -4182,7 +4074,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.621635780256593</v>
+        <v>1.584961141276121</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.178032018734547</v>
@@ -4271,7 +4163,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.635437061536676</v>
+        <v>1.592947448436932</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.634567704622165</v>
@@ -4360,7 +4252,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.641076568083528</v>
+        <v>1.602378430889144</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.516940290280556</v>
@@ -4449,7 +4341,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.646186499138931</v>
+        <v>1.607407646280389</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.516137607432375</v>
@@ -4538,7 +4430,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.65470825215838</v>
+        <v>1.617780755866129</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.161852657704405</v>
@@ -4627,7 +4519,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.655396938988964</v>
+        <v>1.611134410699975</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.564593093219544</v>
@@ -4716,7 +4608,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.6591417608688</v>
+        <v>1.610385764817719</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.461022335421621</v>
@@ -4805,7 +4697,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.669003275471678</v>
+        <v>1.61509596923099</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.656570879553949</v>
@@ -4894,7 +4786,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.661388762447589</v>
+        <v>1.60608052495456</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.381348681646972</v>
@@ -4983,7 +4875,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.659883042703229</v>
+        <v>1.604708210980523</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.398571286659669</v>
@@ -5072,7 +4964,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.661370647407572</v>
+        <v>1.598085367651628</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.623485920547333</v>
@@ -5161,7 +5053,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.66487885961865</v>
+        <v>1.604531689783071</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.526696892086493</v>
@@ -5250,7 +5142,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.600720963796514</v>
+        <v>1.549091501421037</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.974583829759955</v>
@@ -5339,7 +5231,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.576820496129428</v>
+        <v>1.531295346772712</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.977623593344533</v>
@@ -5428,7 +5320,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.585349509835514</v>
+        <v>1.545440813307242</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.967819166329564</v>
@@ -5517,7 +5409,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.588923974474505</v>
+        <v>1.546873831739651</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.994217884254068</v>
@@ -5606,7 +5498,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.566951638863801</v>
+        <v>1.534331787826412</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.034626342527516</v>
@@ -5695,7 +5587,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.477529747752472</v>
+        <v>1.463078729278386</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.021597026014974</v>
@@ -5784,7 +5676,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.485052391421284</v>
+        <v>1.477553024034267</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.07044918095948</v>
@@ -5873,7 +5765,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.499306831165082</v>
+        <v>1.493237378816773</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.101035571299684</v>
@@ -5962,7 +5854,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.488971460059269</v>
+        <v>1.484054422882067</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.134436513797066</v>
@@ -6051,7 +5943,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.498037529243801</v>
+        <v>1.48308120163443</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.772189626669568</v>
@@ -6140,7 +6032,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.412480184405202</v>
+        <v>1.390183069263234</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.854379867854558</v>
@@ -6229,7 +6121,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.400144263019192</v>
+        <v>1.391628825434142</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.868719182670247</v>
@@ -6318,7 +6210,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.440622428829631</v>
+        <v>1.415431524312678</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.943201350015976</v>
@@ -6407,7 +6299,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.385382664879167</v>
+        <v>1.366809737780183</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.976095215263795</v>
@@ -6496,7 +6388,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.397457794068946</v>
+        <v>1.381896890173178</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.978879972805085</v>
@@ -6585,7 +6477,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.419853067855585</v>
+        <v>1.406470885199237</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.93655241855979</v>
@@ -6674,7 +6566,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.436510234513945</v>
+        <v>1.42614763759501</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.025583815168337</v>
@@ -6763,7 +6655,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.450206307385203</v>
+        <v>1.442495693824074</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.033349758947141</v>
@@ -6852,7 +6744,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.461664156197221</v>
+        <v>1.456154318275042</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.06810224770843</v>
@@ -6941,7 +6833,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.474092054849315</v>
+        <v>1.466872530816486</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.99570104622167</v>
@@ -7030,7 +6922,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.502041344117191</v>
+        <v>1.493845507154198</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.085064251163962</v>
@@ -7119,7 +7011,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.487315767908092</v>
+        <v>1.477596774736188</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.138002296612678</v>
@@ -7208,7 +7100,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.477340659856841</v>
+        <v>1.466776417037018</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.128587001125692</v>
@@ -7297,7 +7189,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.473624988885788</v>
+        <v>1.462868947764043</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.138832677955637</v>
@@ -7386,7 +7278,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.466129085508287</v>
+        <v>1.467169662687938</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.114415901770483</v>
@@ -7475,7 +7367,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.51406436651079</v>
+        <v>1.517908425200465</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.016880927598396</v>
@@ -7564,7 +7456,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.447954820588788</v>
+        <v>1.443753363504318</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.131818476107086</v>
@@ -7653,7 +7545,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.468157441080515</v>
+        <v>1.473212086668865</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.973262641018957</v>
@@ -7939,7 +7831,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.524764786195117</v>
+        <v>1.483199643696923</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.851841477197658</v>
@@ -8028,7 +7920,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.473159161670592</v>
+        <v>1.435971414901072</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.146314218482039</v>
@@ -8117,7 +8009,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.472591755315005</v>
+        <v>1.438754397875032</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.062603237775096</v>
@@ -8206,7 +8098,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.477048187844192</v>
+        <v>1.447374880578891</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.033971627262188</v>
@@ -8295,7 +8187,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.486777480406702</v>
+        <v>1.458023779986659</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.141830375478448</v>
@@ -8384,7 +8276,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.495243512601241</v>
+        <v>1.462095755896306</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.128603443511502</v>
@@ -8473,7 +8365,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.471114648408088</v>
+        <v>1.4394326339446</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.048335949762508</v>
@@ -8562,7 +8454,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.469092314844722</v>
+        <v>1.442607028734959</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.080743225501979</v>
@@ -8651,7 +8543,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.471540930538301</v>
+        <v>1.44856304522561</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.125100275329181</v>
@@ -8740,7 +8632,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.471389777379399</v>
+        <v>1.443027482340589</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.014642810235552</v>
@@ -8829,7 +8721,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.473748134549091</v>
+        <v>1.447952832466846</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.099610254500321</v>
@@ -8918,7 +8810,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.470081683218615</v>
+        <v>1.448082782882314</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.106310238380519</v>
@@ -9007,7 +8899,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.468184679883375</v>
+        <v>1.437371043652719</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.152187493721873</v>
@@ -9096,7 +8988,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.466495025561139</v>
+        <v>1.433004349178237</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.164110896231735</v>
@@ -9185,7 +9077,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.469525313905718</v>
+        <v>1.435672910987414</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.14540667299069</v>
@@ -9274,7 +9166,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.473640689645807</v>
+        <v>1.442086083481013</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.21149108771507</v>
@@ -9363,7 +9255,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.528693717820384</v>
+        <v>1.486893148318886</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.231322674709422</v>
@@ -9452,7 +9344,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.537120590283303</v>
+        <v>1.489858776648984</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.265711840855568</v>
@@ -9541,7 +9433,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.537010428870868</v>
+        <v>1.490773754934016</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.327685545966412</v>
@@ -9630,7 +9522,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.535008924487525</v>
+        <v>1.485737154741313</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.298718236647832</v>
@@ -9719,7 +9611,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.535630258412585</v>
+        <v>1.483815157849182</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.161397785889051</v>
@@ -9808,7 +9700,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.579982581478083</v>
+        <v>1.522766124890859</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.079407766369235</v>
@@ -9897,7 +9789,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.585583424706741</v>
+        <v>1.521389694701962</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.179300867261434</v>
@@ -9986,7 +9878,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.590889960821685</v>
+        <v>1.52422725567463</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.134671154172857</v>
@@ -10075,7 +9967,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.585321399096517</v>
+        <v>1.523576255236586</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.05890266906634</v>
@@ -10164,7 +10056,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.592347390190344</v>
+        <v>1.529449134740233</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.969307845704499</v>
@@ -10253,7 +10145,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.595924263970622</v>
+        <v>1.526446249865282</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.365303140176223</v>
@@ -10342,7 +10234,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.598402382866361</v>
+        <v>1.535433362822283</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.143553566188366</v>
@@ -10431,7 +10323,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.613526893649844</v>
+        <v>1.541142926279996</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.218858875465588</v>
@@ -10520,7 +10412,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.605826983549487</v>
+        <v>1.538694450169596</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.322576195413663</v>
@@ -10609,7 +10501,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.611219388421339</v>
+        <v>1.541425872504556</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.211253908618562</v>
@@ -10698,7 +10590,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.615157155262613</v>
+        <v>1.541146132948396</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.34693383109638</v>
@@ -10787,7 +10679,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.620218280859315</v>
+        <v>1.547803056567536</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.467908324140339</v>
@@ -10876,7 +10768,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.562438687317512</v>
+        <v>1.501336195297674</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.961844183113006</v>
@@ -10965,7 +10857,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.542715064964407</v>
+        <v>1.488561835334625</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.968515197072894</v>
@@ -11054,7 +10946,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.553117947109068</v>
+        <v>1.500622758065556</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.976973761209649</v>
@@ -11143,7 +11035,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.545187374446356</v>
+        <v>1.491103548990665</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.955448366909184</v>
@@ -11232,7 +11124,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.53158282926996</v>
+        <v>1.489878385605857</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.958625651376728</v>
@@ -11321,7 +11213,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.493875808597008</v>
+        <v>1.466860251120486</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.980239109852775</v>
@@ -11410,7 +11302,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.501867449885137</v>
+        <v>1.478929723832508</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.023803642374126</v>
@@ -11499,7 +11391,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.506800070993325</v>
+        <v>1.487988382765808</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.046947365865744</v>
@@ -11588,7 +11480,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.473885312593803</v>
+        <v>1.456777334763233</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.052741442392567</v>
@@ -11677,7 +11569,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.489727421935586</v>
+        <v>1.460548456620332</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.702730305399141</v>
@@ -11766,7 +11658,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.394535411494556</v>
+        <v>1.360839404419844</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.788881682307413</v>
@@ -11855,7 +11747,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.373188683396781</v>
+        <v>1.35219842080785</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.79866745167408</v>
@@ -11944,7 +11836,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.424068196469514</v>
+        <v>1.388092960127067</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.891456051686151</v>
@@ -12033,7 +11925,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.362565692210338</v>
+        <v>1.33270520670798</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.921061963973107</v>
@@ -12122,7 +12014,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.368817324458745</v>
+        <v>1.34166305796484</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.925733440565562</v>
@@ -12211,7 +12103,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.38719745012884</v>
+        <v>1.362158917450845</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.876022056252486</v>
@@ -12300,7 +12192,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.402271812479761</v>
+        <v>1.380350084864303</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.951260151326982</v>
@@ -12389,7 +12281,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.415244509543479</v>
+        <v>1.385094379846727</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.981563583951274</v>
@@ -12478,7 +12370,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.394458450271895</v>
+        <v>1.379037420693092</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.016274016729068</v>
@@ -12567,7 +12459,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.402742176992132</v>
+        <v>1.386883151173073</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.966764063306868</v>
@@ -12656,7 +12548,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.417788377962588</v>
+        <v>1.400956411037096</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.007397764624252</v>
@@ -12745,7 +12637,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.417555525422235</v>
+        <v>1.400743129529008</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.074854471154961</v>
@@ -12834,7 +12726,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.418395694626654</v>
+        <v>1.404761343006301</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.08399866988534</v>
@@ -12923,7 +12815,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.417763899534961</v>
+        <v>1.402596247582611</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.106069537700754</v>
@@ -13012,7 +12904,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.403335729735188</v>
+        <v>1.399718783842463</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.063979471842539</v>
@@ -13101,7 +12993,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.449631099474111</v>
+        <v>1.451178194454181</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.944030253342403</v>
@@ -13190,7 +13082,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.387167510314409</v>
+        <v>1.379063242942131</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.041857190785521</v>
@@ -13279,7 +13171,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.398049147640503</v>
+        <v>1.400634691857353</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.872783167159093</v>
@@ -13565,7 +13457,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.44512843006666</v>
+        <v>1.4127426866497</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.665177749006188</v>
@@ -13654,7 +13546,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.452089410577259</v>
+        <v>1.419339823891294</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.715854576474271</v>
@@ -13743,7 +13635,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.457240213565037</v>
+        <v>1.417928202464667</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.568340719184856</v>
@@ -13832,7 +13724,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.479411135595299</v>
+        <v>1.440399512835032</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.870550289015839</v>
@@ -13921,7 +13813,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.486946205171249</v>
+        <v>1.442404299503805</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.655546920901972</v>
@@ -14010,7 +13902,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.502888946389763</v>
+        <v>1.460062352169696</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.726173396219705</v>
@@ -14099,7 +13991,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.502947695781681</v>
+        <v>1.458945665334582</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.672926786993783</v>
@@ -14188,7 +14080,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.516689687430923</v>
+        <v>1.469860244790014</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.627477252893157</v>
@@ -14277,7 +14169,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.513749294796655</v>
+        <v>1.467876855646898</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.777380091732585</v>
@@ -14366,7 +14258,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.506217873597256</v>
+        <v>1.462989397497331</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.546499818837809</v>
@@ -14455,7 +14347,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.501603218303868</v>
+        <v>1.457656985007195</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.77320371979276</v>
@@ -14544,7 +14436,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.516939522241631</v>
+        <v>1.470070329816866</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.710214092009152</v>
@@ -14633,7 +14525,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.516803836522165</v>
+        <v>1.461461074555943</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.712963064673489</v>
@@ -14722,7 +14614,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.518657247217133</v>
+        <v>1.457223081365191</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.740272730372428</v>
@@ -14811,7 +14703,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.52055365875819</v>
+        <v>1.457364980722665</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.726353390962146</v>
@@ -14900,7 +14792,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.498301402523182</v>
+        <v>1.439301149622892</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.805307295452639</v>
@@ -14989,7 +14881,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.507683296321723</v>
+        <v>1.441066530622769</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.528102587401304</v>
@@ -15078,7 +14970,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.509489052497919</v>
+        <v>1.44643459120684</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.868407810853608</v>
@@ -15167,7 +15059,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.507069852811451</v>
+        <v>1.442910640713214</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.928534987727331</v>
@@ -15256,7 +15148,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.513792737861826</v>
+        <v>1.444253956267279</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.93088393069851</v>
@@ -15345,7 +15237,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.505140137913048</v>
+        <v>1.437085327984839</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.894778529996465</v>
@@ -15434,7 +15326,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.518835538312053</v>
+        <v>1.442937348874987</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.400335913713938</v>
@@ -15523,7 +15415,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.519191993263155</v>
+        <v>1.443289547402636</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.001743457946795</v>
@@ -15612,7 +15504,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.522786989544911</v>
+        <v>1.444773404895984</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.422127993493318</v>
@@ -15701,7 +15593,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.52478167346741</v>
+        <v>1.448732552039102</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.315687215562507</v>
@@ -15790,7 +15682,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.527241930242557</v>
+        <v>1.450610071275263</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.622071306543699</v>
@@ -15879,7 +15771,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.511823050702719</v>
+        <v>1.43586802183849</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.025419010595094</v>
@@ -15968,7 +15860,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.511248190931023</v>
+        <v>1.445728234432328</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.271305473764221</v>
@@ -16057,7 +15949,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.511152699290416</v>
+        <v>1.444969103695183</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.047140304981304</v>
@@ -16146,7 +16038,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.511210877346234</v>
+        <v>1.448381704184639</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.099281466642727</v>
@@ -16235,7 +16127,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.517035770939362</v>
+        <v>1.451158973942414</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.1138885889362</v>
@@ -16324,7 +16216,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.515728381168331</v>
+        <v>1.456828132719548</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.05182694109518</v>
@@ -16413,7 +16305,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.510594975075953</v>
+        <v>1.449716517978767</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.091319295654579</v>
@@ -16502,7 +16394,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.477338644414972</v>
+        <v>1.417529882901586</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.962247016745614</v>
@@ -16591,7 +16483,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.451761741209004</v>
+        <v>1.403228428891034</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.079980056523307</v>
@@ -16680,7 +16572,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.450083441477335</v>
+        <v>1.404588070716301</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.016002381390411</v>
@@ -16769,7 +16661,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.456387419177481</v>
+        <v>1.410050195454522</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.003951736934791</v>
@@ -16858,7 +16750,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.456541149442022</v>
+        <v>1.415581440603461</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.984075994281924</v>
@@ -16947,7 +16839,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.438713697685256</v>
+        <v>1.404761011230341</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.026989501142967</v>
@@ -17036,7 +16928,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.452825404528818</v>
+        <v>1.422603040885409</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.049398534439749</v>
@@ -17125,7 +17017,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.458091366122572</v>
+        <v>1.426538241478829</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.059173831035782</v>
@@ -17214,7 +17106,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.421910087593719</v>
+        <v>1.394078281729214</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.975075281060472</v>
@@ -17303,7 +17195,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.439092527153201</v>
+        <v>1.403079396278724</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.74474418692604</v>
@@ -17392,7 +17284,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.371307779029388</v>
+        <v>1.331135962726481</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.836989373599049</v>
@@ -17481,7 +17373,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.354989232993275</v>
+        <v>1.325633014983869</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.84501120367477</v>
@@ -17570,7 +17462,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.418429988466585</v>
+        <v>1.377820031329287</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.881926174445905</v>
@@ -17659,7 +17551,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.365455518185495</v>
+        <v>1.334845391516749</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.91955221503471</v>
@@ -17748,7 +17640,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.372088429326938</v>
+        <v>1.343916094006552</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.919570454977794</v>
@@ -17837,7 +17729,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.391267594107224</v>
+        <v>1.367613952584676</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.867987242882987</v>
@@ -17926,7 +17818,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.403626567402239</v>
+        <v>1.380906081064315</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.940386856931886</v>
@@ -18015,7 +17907,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.417148809076503</v>
+        <v>1.397735432864077</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.956025134106995</v>
@@ -18104,7 +17996,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.428800800266425</v>
+        <v>1.412660447609076</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.981706211333023</v>
@@ -18193,7 +18085,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.444368469406772</v>
+        <v>1.430728015751404</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.985369034313019</v>
@@ -18282,7 +18174,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.462503633105141</v>
+        <v>1.448642482709921</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.990393151965473</v>
@@ -18371,7 +18263,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.461130959687043</v>
+        <v>1.444505434603866</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.057890550191155</v>
@@ -18460,7 +18352,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.469870730186311</v>
+        <v>1.459929274958201</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.101725901699284</v>
@@ -18549,7 +18441,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.476417532160091</v>
+        <v>1.467142290338492</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.134615610866561</v>
@@ -18638,7 +18530,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.469019471466931</v>
+        <v>1.472995132096149</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.113454835684222</v>
@@ -18727,7 +18619,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.518487593546483</v>
+        <v>1.531643601822471</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.995478245161218</v>
@@ -18816,7 +18708,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.439749682786756</v>
+        <v>1.444833680554058</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.075316697339205</v>
@@ -18905,7 +18797,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.463960943338844</v>
+        <v>1.480370719748802</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.92147824419031</v>
@@ -19191,7 +19083,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.620517166861376</v>
+        <v>1.552299052346249</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.163686795868949</v>
@@ -19280,7 +19172,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.599627966939405</v>
+        <v>1.532685265547451</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.824483337058176</v>
@@ -19369,7 +19261,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.595815659681031</v>
+        <v>1.529745625399692</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.70464583777368</v>
@@ -19458,7 +19350,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.611059472703743</v>
+        <v>1.547624586227</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.688053816987458</v>
@@ -19547,7 +19439,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.612313988155807</v>
+        <v>1.551995306801991</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.733560648872444</v>
@@ -19636,7 +19528,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.603135604008106</v>
+        <v>1.549980802872043</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.82521721912812</v>
@@ -19725,7 +19617,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.570833478758893</v>
+        <v>1.525880053368715</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.343974607620426</v>
@@ -19814,7 +19706,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.570975378633022</v>
+        <v>1.532905446024817</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.4159985041664</v>
@@ -19903,7 +19795,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.568524820890455</v>
+        <v>1.531245106963858</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.405416690563753</v>
@@ -19992,7 +19884,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.550305133561729</v>
+        <v>1.5138066717831</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.458620688212561</v>
@@ -20081,7 +19973,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.555366238120339</v>
+        <v>1.520117800786007</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.441885031150117</v>
@@ -20170,7 +20062,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.562452752271816</v>
+        <v>1.527220801146836</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.443101859017315</v>
@@ -20259,7 +20151,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.573718392620428</v>
+        <v>1.537066821639738</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.414901581384902</v>
@@ -20348,7 +20240,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.56921854728992</v>
+        <v>1.533781454221949</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.46063945123439</v>
@@ -20437,7 +20329,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.576101667160304</v>
+        <v>1.54150127352718</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.54503954917986</v>
@@ -20526,7 +20418,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.573524923735748</v>
+        <v>1.535570296435311</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.461426209682798</v>
@@ -20615,7 +20507,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.600927211526293</v>
+        <v>1.554464516303331</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.331128852290801</v>
@@ -20704,7 +20596,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.605271584227187</v>
+        <v>1.557668111871846</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.514104925216766</v>
@@ -20793,7 +20685,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.610305874390766</v>
+        <v>1.554546299175018</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.532695037019291</v>
@@ -20882,7 +20774,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.615444761504305</v>
+        <v>1.550288609302641</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.479712222897293</v>
@@ -20971,7 +20863,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.620288308654179</v>
+        <v>1.549787501474219</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.473776541075035</v>
@@ -21060,7 +20952,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.64384844358348</v>
+        <v>1.564169248150697</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.537053090897548</v>
@@ -21149,7 +21041,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.646582550399199</v>
+        <v>1.568876757632578</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.18435198330618</v>
@@ -21238,7 +21130,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.644571182481802</v>
+        <v>1.567419578989857</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.07098955907287</v>
@@ -21327,7 +21219,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.650397098087977</v>
+        <v>1.570484043078917</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.111367632332586</v>
@@ -21416,7 +21308,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.644020474334943</v>
+        <v>1.561813688581565</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.218734642915049</v>
@@ -21505,7 +21397,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.635237129711545</v>
+        <v>1.55110830654626</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.315196208225311</v>
@@ -21594,7 +21486,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.628549423980115</v>
+        <v>1.547867827625189</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.951647741844283</v>
@@ -21683,7 +21575,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.622117199786078</v>
+        <v>1.540026275672988</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.15586077755537</v>
@@ -21772,7 +21664,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.616642786641786</v>
+        <v>1.534147868411362</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.275944632109051</v>
@@ -21861,7 +21753,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.610503246204371</v>
+        <v>1.534811451341296</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.198679288161303</v>
@@ -21950,7 +21842,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.601345299874636</v>
+        <v>1.536853127327444</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.103398122572894</v>
@@ -22039,7 +21931,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.598282471866342</v>
+        <v>1.53393284184416</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.100443749626728</v>
@@ -22128,7 +22020,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.583822159559857</v>
+        <v>1.518654108090099</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.504784269081092</v>
@@ -22217,7 +22109,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.546790424605218</v>
+        <v>1.507869797144893</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.420117910056333</v>
@@ -22306,7 +22198,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.554391725336823</v>
+        <v>1.516347473508611</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.411743228291252</v>
@@ -22395,7 +22287,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.561492277548988</v>
+        <v>1.519933224668008</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.408187208014609</v>
@@ -22484,7 +22376,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.553920057470201</v>
+        <v>1.515808686619283</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.512237515233736</v>
@@ -22573,7 +22465,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.534405308038193</v>
+        <v>1.506517875358055</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.392033285561228</v>
@@ -22662,7 +22554,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.544259590077207</v>
+        <v>1.51800656775192</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.470940252995471</v>
@@ -22751,7 +22643,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.558746220180012</v>
+        <v>1.538444217814595</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.488812798929051</v>
@@ -22840,7 +22732,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.553558651996496</v>
+        <v>1.538161939353619</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.355165483147705</v>
@@ -22929,7 +22821,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.545206232576279</v>
+        <v>1.527418075706828</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.822041610429814</v>
@@ -23018,7 +22910,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.506118177810109</v>
+        <v>1.486249036646013</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.851106493367218</v>
@@ -23107,7 +22999,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.501346104599901</v>
+        <v>1.489118593247987</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.870466002678049</v>
@@ -23196,7 +23088,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.551472727763825</v>
+        <v>1.538230984679974</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.970320438260964</v>
@@ -23285,7 +23177,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.543300814860879</v>
+        <v>1.535416794638138</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.99159186361252</v>
@@ -23374,7 +23266,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.559244076634829</v>
+        <v>1.549660228930554</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.021423656643094</v>
@@ -23463,7 +23355,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.595663380232226</v>
+        <v>1.587852904047324</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.968092384590578</v>
@@ -23552,7 +23444,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.612677358432181</v>
+        <v>1.606849199921201</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.081603092968286</v>
@@ -23641,7 +23533,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.627162526069369</v>
+        <v>1.623361768795042</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.099463383493855</v>
@@ -23730,7 +23622,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.632430718101718</v>
+        <v>1.636563696583707</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.130798765557012</v>
@@ -23819,7 +23711,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.651892110109151</v>
+        <v>1.657626541337391</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.119945650167151</v>
@@ -23908,7 +23800,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.678918472651892</v>
+        <v>1.682790350004836</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.197532113860439</v>
@@ -23997,7 +23889,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.686683928751962</v>
+        <v>1.690709111017313</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.248144121286495</v>
@@ -24086,7 +23978,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.686083810506402</v>
+        <v>1.690402379053999</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.267176290784813</v>
@@ -24175,7 +24067,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.698947571471395</v>
+        <v>1.701587087692127</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.231540119255418</v>
@@ -24264,7 +24156,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.710596149443804</v>
+        <v>1.728849131393621</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.409999316222269</v>
@@ -24353,7 +24245,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.769040361054337</v>
+        <v>1.78591719255633</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.549791088031656</v>
@@ -24442,7 +24334,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.713426896642597</v>
+        <v>1.732170964152391</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.648595854598561</v>
@@ -24531,7 +24423,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.719860085992288</v>
+        <v>1.741710262195113</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.715983419017403</v>
@@ -24817,7 +24709,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.578569214170398</v>
+        <v>1.538612708849214</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.172044109633366</v>
@@ -24906,7 +24798,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.549624512757175</v>
+        <v>1.513432411219025</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.60678074164336</v>
@@ -24995,7 +24887,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.556829347592786</v>
+        <v>1.521910788826157</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.63726741536749</v>
@@ -25084,7 +24976,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.568529566693928</v>
+        <v>1.536971402064575</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.394877315976157</v>
@@ -25173,7 +25065,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.584820499496832</v>
+        <v>1.557701660267402</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.519723507131422</v>
@@ -25262,7 +25154,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.588966837022474</v>
+        <v>1.559764056287996</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.582694694638583</v>
@@ -25351,7 +25243,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.55367411272229</v>
+        <v>1.532792185846459</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.447340494009328</v>
@@ -25440,7 +25332,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.560366567677351</v>
+        <v>1.541029239758482</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.462576707576789</v>
@@ -25529,7 +25421,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.5586078813681</v>
+        <v>1.541804713385704</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.315216849217313</v>
@@ -25618,7 +25510,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.564218035280239</v>
+        <v>1.549293645061843</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.281487044530595</v>
@@ -25707,7 +25599,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.585214762371071</v>
+        <v>1.571221080924566</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.45992316654354</v>
@@ -25796,7 +25688,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.597928376587381</v>
+        <v>1.580511019210424</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.420895741272808</v>
@@ -25885,7 +25777,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.600796655370473</v>
+        <v>1.58467922329785</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.392996829357863</v>
@@ -25974,7 +25866,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.612405239593814</v>
+        <v>1.595123839638851</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.379523398522107</v>
@@ -26063,7 +25955,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.61944235831138</v>
+        <v>1.603328639276554</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.462849580055019</v>
@@ -26152,7 +26044,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.622976189497908</v>
+        <v>1.608730747522934</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.479878628622055</v>
@@ -26241,7 +26133,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.654219081385573</v>
+        <v>1.631032794208582</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.38807090858266</v>
@@ -26330,7 +26222,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.658854581122942</v>
+        <v>1.633362634972736</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.516531585524129</v>
@@ -26419,7 +26311,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.661448170958487</v>
+        <v>1.637786640851842</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.555921289923058</v>
@@ -26508,7 +26400,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.662500485507896</v>
+        <v>1.635353252324871</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.498825717222185</v>
@@ -26597,7 +26489,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.679646814212504</v>
+        <v>1.647025964966046</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.506334813490454</v>
@@ -26686,7 +26578,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.724591397001986</v>
+        <v>1.686667608340113</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.72981876817762</v>
@@ -26775,7 +26667,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.722686931397081</v>
+        <v>1.68447330297061</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.52654645923909</v>
@@ -26864,7 +26756,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.736008886051593</v>
+        <v>1.696535066052475</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.674533314672045</v>
@@ -26953,7 +26845,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.738006198908057</v>
+        <v>1.696886531260221</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.521647565076101</v>
@@ -27042,7 +26934,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.740099359654272</v>
+        <v>1.696692906434803</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.350054721493196</v>
@@ -27131,7 +27023,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.737758551506591</v>
+        <v>1.696617233892232</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.330007925452789</v>
@@ -27220,7 +27112,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.741425941618366</v>
+        <v>1.703869136810326</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.603714740770913</v>
@@ -27309,7 +27201,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.74659450248026</v>
+        <v>1.705494968680159</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.661507518430737</v>
@@ -27398,7 +27290,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.750783338632752</v>
+        <v>1.711151130329234</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.364948006728485</v>
@@ -27487,7 +27379,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.758270875767722</v>
+        <v>1.710706923116082</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.52647254121613</v>
@@ -27576,7 +27468,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.761464235858278</v>
+        <v>1.722869848288418</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.667386649228215</v>
@@ -27665,7 +27557,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.768409013609071</v>
+        <v>1.72733343442103</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.809729720131428</v>
@@ -27754,7 +27646,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.745364463308888</v>
+        <v>1.70488006856091</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.176050916572183</v>
@@ -27843,7 +27735,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.701206047880265</v>
+        <v>1.682384301864233</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.228920755933394</v>
@@ -27932,7 +27824,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.703066768041053</v>
+        <v>1.686924072743948</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.206329146447451</v>
@@ -28021,7 +27913,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.696519379771316</v>
+        <v>1.679507386831508</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.205115987681758</v>
@@ -28110,7 +28002,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.685616022983982</v>
+        <v>1.670152376602081</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.221437745204106</v>
@@ -28199,7 +28091,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.645103044207596</v>
+        <v>1.64151194180212</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.276124935023495</v>
@@ -28288,7 +28180,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.648341529191393</v>
+        <v>1.644014594247912</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.281926571157221</v>
@@ -28377,7 +28269,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.656503557296096</v>
+        <v>1.651037388836175</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.338470889755366</v>
@@ -28466,7 +28358,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.636109587571717</v>
+        <v>1.635223750755357</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.2594396826104</v>
@@ -28555,7 +28447,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.572725884668938</v>
+        <v>1.567570359165364</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.637045592950546</v>
@@ -28644,7 +28536,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.487961063425115</v>
+        <v>1.484849030929527</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.684203756203225</v>
@@ -28733,7 +28625,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.47475062863996</v>
+        <v>1.481134785197669</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.69516340261726</v>
@@ -28822,7 +28714,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.49656924663239</v>
+        <v>1.488495624411408</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.753868667168992</v>
@@ -28911,7 +28803,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.456227322626542</v>
+        <v>1.450100759337306</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.780254021514287</v>
@@ -29000,7 +28892,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.467878212865644</v>
+        <v>1.465702127606133</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.80258945533882</v>
@@ -29089,7 +28981,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.489754080073443</v>
+        <v>1.488366235702178</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.78564507798099</v>
@@ -29178,7 +29070,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.504977408506184</v>
+        <v>1.505888854799039</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.829738359046893</v>
@@ -29267,7 +29159,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.515476772468251</v>
+        <v>1.519476877407078</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.840341885202461</v>
@@ -29356,7 +29248,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.526776974154899</v>
+        <v>1.532124446205537</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.861954039572466</v>
@@ -29445,7 +29337,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.543890941226131</v>
+        <v>1.549006520219974</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.852253007431639</v>
@@ -29534,7 +29426,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.561228623365617</v>
+        <v>1.56671743666447</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.895141041388545</v>
@@ -29623,7 +29515,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.568808485270803</v>
+        <v>1.572420439289252</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.91595583150457</v>
@@ -29712,7 +29604,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.570501040768218</v>
+        <v>1.575555904809604</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.917268457804987</v>
@@ -29801,7 +29693,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.597498766855831</v>
+        <v>1.592538828659926</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.859115025185065</v>
@@ -29890,7 +29782,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.61194805945217</v>
+        <v>1.626413074171924</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.219246232965257</v>
@@ -29979,7 +29871,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.70272526179046</v>
+        <v>1.711457554093085</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.513914620004201</v>
@@ -30068,7 +29960,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.665738489336393</v>
+        <v>1.681453051748572</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.520833591789769</v>
@@ -30157,7 +30049,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.684056040811639</v>
+        <v>1.719960250544866</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.345594259002131</v>
@@ -30443,7 +30335,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.289876437559774</v>
+        <v>1.292118538247351</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.367892312902767</v>
@@ -30532,7 +30424,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.291961665713638</v>
+        <v>1.292366300350252</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.37052814614079</v>
@@ -30621,7 +30513,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.306438540352381</v>
+        <v>1.302351329321307</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.171862420618586</v>
@@ -30710,7 +30602,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.310467977221885</v>
+        <v>1.3089069830567</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.371270562185102</v>
@@ -30799,7 +30691,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.325345696972434</v>
+        <v>1.322260528045888</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.228284005230679</v>
@@ -30888,7 +30780,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.326520151540389</v>
+        <v>1.321435272684097</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.362363636116822</v>
@@ -30977,7 +30869,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.31606506619818</v>
+        <v>1.306950689762904</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.287164860346047</v>
@@ -31066,7 +30958,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.314970233996422</v>
+        <v>1.304003712241276</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.256296653724064</v>
@@ -31155,7 +31047,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.317554204038817</v>
+        <v>1.298120430100993</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.217306197919153</v>
@@ -31244,7 +31136,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.306339336183108</v>
+        <v>1.282496049572525</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.240723891871201</v>
@@ -31333,7 +31225,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.331029865276759</v>
+        <v>1.310045570982381</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.284873479787387</v>
@@ -31422,7 +31314,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.353524134312048</v>
+        <v>1.33003246181019</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.311378954790711</v>
@@ -31511,7 +31403,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.351922966903124</v>
+        <v>1.326690042349201</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.292666918517389</v>
@@ -31600,7 +31492,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.341804845838694</v>
+        <v>1.315351489611897</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.236387380024374</v>
@@ -31689,7 +31581,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.342599793799427</v>
+        <v>1.315077219044987</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.306126235080436</v>
@@ -31778,7 +31670,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.336277803307558</v>
+        <v>1.308318898299813</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.276630977527447</v>
@@ -31867,7 +31759,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.346530870673949</v>
+        <v>1.312332651045266</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.252813266414234</v>
@@ -31956,7 +31848,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.33890304094218</v>
+        <v>1.305945063754572</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.194333037131565</v>
@@ -32045,7 +31937,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.334249876503478</v>
+        <v>1.30551263759889</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.265221837364499</v>
@@ -32134,7 +32026,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.331625256436315</v>
+        <v>1.298189842734295</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.28054555414912</v>
@@ -32223,7 +32115,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.342583876506149</v>
+        <v>1.308227976018825</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.24321169599618</v>
@@ -32312,7 +32204,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.363565729902769</v>
+        <v>1.329793891859382</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.292885315216795</v>
@@ -32401,7 +32293,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.384721838205522</v>
+        <v>1.352995503684678</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.313099486780557</v>
@@ -32490,7 +32382,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.433124076335712</v>
+        <v>1.398622114416197</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.360217194329653</v>
@@ -32579,7 +32471,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.455153518958756</v>
+        <v>1.419175247895526</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.852511393103084</v>
@@ -32668,7 +32560,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.46044642594978</v>
+        <v>1.423076584264025</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.964836693967885</v>
@@ -32757,7 +32649,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.466975697811465</v>
+        <v>1.428638991403988</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.762758340289671</v>
@@ -32846,7 +32738,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.467894486794555</v>
+        <v>1.425170188079399</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.536217036839543</v>
@@ -32935,7 +32827,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.45384355815434</v>
+        <v>1.417265289017539</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.566294973516561</v>
@@ -33024,7 +32916,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.444569955421863</v>
+        <v>1.412551091695718</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.628850965714179</v>
@@ -33113,7 +33005,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.43613960632556</v>
+        <v>1.410472399232968</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.74736034931893</v>
@@ -33202,7 +33094,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.445319444336553</v>
+        <v>1.425685760606807</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.247323458050721</v>
@@ -33291,7 +33183,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.459491327433316</v>
+        <v>1.439473405271975</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.383671511537273</v>
@@ -33380,7 +33272,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.438457340869616</v>
+        <v>1.415255195229965</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.899307567799726</v>
@@ -33469,7 +33361,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.413855071570058</v>
+        <v>1.397391190405006</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.948318500400195</v>
@@ -33558,7 +33450,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.405970526036447</v>
+        <v>1.389211970226886</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.934761192080185</v>
@@ -33647,7 +33539,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.406303096870145</v>
+        <v>1.394101875365942</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.94250023502838</v>
@@ -33736,7 +33628,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.396745558901714</v>
+        <v>1.389570510223569</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.931571365250442</v>
@@ -33825,7 +33717,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.385750783632144</v>
+        <v>1.382461915950233</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.990577127780679</v>
@@ -33914,7 +33806,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.386165719482535</v>
+        <v>1.385606441297547</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.012869495682916</v>
@@ -34003,7 +33895,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.384852292973553</v>
+        <v>1.388358134534407</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.978267581297974</v>
@@ -34092,7 +33984,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.346587804053527</v>
+        <v>1.345454798070983</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.95803541636148</v>
@@ -34181,7 +34073,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.376013495192919</v>
+        <v>1.359490087711143</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.727718481839895</v>
@@ -34270,7 +34162,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.336282411762977</v>
+        <v>1.305752977035531</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.815742454293042</v>
@@ -34359,7 +34251,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.326367297032149</v>
+        <v>1.305068464352537</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.801331349618553</v>
@@ -34448,7 +34340,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.395637812893279</v>
+        <v>1.364109834093806</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.90812222023641</v>
@@ -34537,7 +34429,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.342938490311536</v>
+        <v>1.316248537529533</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.932710978711695</v>
@@ -34626,7 +34518,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.34630627470117</v>
+        <v>1.320499462890814</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.929170289995328</v>
@@ -34715,7 +34607,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.359191881029983</v>
+        <v>1.335444318461966</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.862711753041005</v>
@@ -34804,7 +34696,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.37002825330587</v>
+        <v>1.348802541117138</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.963708720194839</v>
@@ -34893,7 +34785,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.378129061665323</v>
+        <v>1.359948599454148</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.964498821089553</v>
@@ -34982,7 +34874,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.379167733461527</v>
+        <v>1.366422742626369</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.984360943421098</v>
@@ -35071,7 +34963,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.395662959557046</v>
+        <v>1.383107018894198</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.983252042996888</v>
@@ -35160,7 +35052,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.409132581035982</v>
+        <v>1.398121542718342</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.011285261479453</v>
@@ -35249,7 +35141,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.417848079384255</v>
+        <v>1.403279700981859</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.041775474662872</v>
@@ -35338,7 +35230,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.428362648027749</v>
+        <v>1.4192925646047</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.107118086479958</v>
@@ -35427,7 +35319,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.431459863696138</v>
+        <v>1.423611746988477</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.126396983227322</v>
@@ -35516,7 +35408,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.430648416205174</v>
+        <v>1.435636542070885</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.109050768164426</v>
@@ -35605,7 +35497,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.464001699188358</v>
+        <v>1.481445244658258</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.015393166284555</v>
@@ -35694,7 +35586,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.397582526181165</v>
+        <v>1.404401471652084</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.056074484726368</v>
@@ -35783,7 +35675,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.409243353154569</v>
+        <v>1.428437427243268</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.908493969767086</v>
